--- a/teaching/traditional_assets/database/data/bangladesh/bangladesh_insurance_life.xlsx
+++ b/teaching/traditional_assets/database/data/bangladesh/bangladesh_insurance_life.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ9"/>
+  <dimension ref="A1:AQ7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,46 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.04345</v>
+        <v>-0.03195</v>
       </c>
       <c r="E2">
-        <v>-0.0244</v>
+        <v>-0.07169999999999999</v>
       </c>
       <c r="G2">
-        <v>0.6263699767519096</v>
+        <v>0.1607189119170984</v>
       </c>
       <c r="H2">
-        <v>0.6263699767519096</v>
+        <v>0.1607189119170984</v>
       </c>
       <c r="I2">
-        <v>0.6355363666555961</v>
+        <v>0.1702072538860104</v>
       </c>
       <c r="J2">
-        <v>0.5674588040719305</v>
+        <v>0.1589233645370776</v>
       </c>
       <c r="K2">
-        <v>369.53</v>
+        <v>43.31</v>
       </c>
       <c r="L2">
-        <v>0.6136333444038525</v>
+        <v>0.1402525906735751</v>
       </c>
       <c r="M2">
-        <v>12.224</v>
+        <v>7.646</v>
       </c>
       <c r="N2">
-        <v>0.02020161956701372</v>
+        <v>0.01854744808849214</v>
       </c>
       <c r="O2">
-        <v>0.03307985819825183</v>
+        <v>0.1765412145001154</v>
       </c>
       <c r="P2">
-        <v>12.224</v>
+        <v>7.646</v>
       </c>
       <c r="Q2">
-        <v>0.02020161956701372</v>
+        <v>0.01854744808849214</v>
       </c>
       <c r="R2">
-        <v>0.03307985819825183</v>
+        <v>0.1765412145001154</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,73 +639,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>610.9</v>
+        <v>378.36</v>
       </c>
       <c r="V2">
-        <v>1.00958519253016</v>
+        <v>0.9178148651271104</v>
       </c>
       <c r="W2">
-        <v>1.26875</v>
+        <v>1.043956043956044</v>
       </c>
       <c r="X2">
-        <v>0.104762684348714</v>
+        <v>0.08846408071440458</v>
       </c>
       <c r="Y2">
-        <v>1.163987315651286</v>
+        <v>0.9554919632416392</v>
       </c>
       <c r="Z2">
-        <v>-1.15643123247686</v>
+        <v>-1.359573812354159</v>
       </c>
       <c r="AA2">
-        <v>-0.1462597512548126</v>
+        <v>-0.07812183383991894</v>
       </c>
       <c r="AB2">
-        <v>0.104762684348714</v>
+        <v>0.08846408071440458</v>
       </c>
       <c r="AC2">
-        <v>-0.2510224356035267</v>
+        <v>-0.1665859145543235</v>
       </c>
       <c r="AD2">
-        <v>23</v>
+        <v>0.096</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>23</v>
+        <v>0.096</v>
       </c>
       <c r="AG2">
-        <v>-587.9</v>
+        <v>-378.264</v>
       </c>
       <c r="AH2">
-        <v>0.03661837287056201</v>
+        <v>0.0002328198362500485</v>
       </c>
       <c r="AI2">
-        <v>0.1168877369517711</v>
+        <v>0.0006814503535023708</v>
       </c>
       <c r="AJ2">
-        <v>-34.18023255813944</v>
+        <v>-11.13327054391335</v>
       </c>
       <c r="AK2">
-        <v>1.419602540265134</v>
+        <v>1.592797830590692</v>
       </c>
       <c r="AL2">
-        <v>0.01</v>
+        <v>0.047</v>
       </c>
       <c r="AM2">
-        <v>0.01</v>
+        <v>0.047</v>
       </c>
       <c r="AN2">
-        <v>0.0692208143979294</v>
+        <v>0.001711229946524064</v>
       </c>
       <c r="AO2">
-        <v>38271.99999999999</v>
+        <v>1118.297872340426</v>
       </c>
       <c r="AP2">
-        <v>-1.769344208023595</v>
+        <v>-6.742673796791444</v>
       </c>
       <c r="AQ2">
-        <v>38271.99999999999</v>
+        <v>1118.297872340426</v>
       </c>
     </row>
     <row r="3">
@@ -716,7 +716,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sandhani Life Insurance Company Limited (DSE:SANDHANINS)</t>
+          <t>Sunlife Insurance Company Limited (DSE:SUNLIFEINS)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -725,28 +725,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.0508</v>
-      </c>
-      <c r="E3">
-        <v>-0.0264</v>
+        <v>-0.142</v>
       </c>
       <c r="G3">
-        <v>3.32258064516129</v>
+        <v>-0.5</v>
       </c>
       <c r="H3">
-        <v>3.32258064516129</v>
+        <v>-0.5</v>
       </c>
       <c r="I3">
-        <v>3.180645161290323</v>
+        <v>-0.5578431372549021</v>
       </c>
       <c r="J3">
-        <v>3.158877722494975</v>
+        <v>-0.5578431372549021</v>
       </c>
       <c r="K3">
-        <v>97.3</v>
+        <v>-5.81</v>
       </c>
       <c r="L3">
-        <v>3.138709677419355</v>
+        <v>-0.5696078431372549</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -755,7 +752,7 @@
         <v>-0</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -764,61 +761,61 @@
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>39.6</v>
+        <v>4.86</v>
       </c>
       <c r="V3">
-        <v>1.375</v>
+        <v>0.4939024390243903</v>
       </c>
       <c r="W3">
-        <v>0.8309137489325363</v>
+        <v>-1.373522458628841</v>
       </c>
       <c r="X3">
-        <v>0.104762684348714</v>
+        <v>0.08904333008548558</v>
       </c>
       <c r="Y3">
-        <v>0.7261510645838223</v>
+        <v>-1.462565788714327</v>
       </c>
       <c r="Z3">
-        <v>0.4246575342465753</v>
+        <v>-8.360655737704919</v>
       </c>
       <c r="AA3">
-        <v>1.341441224621154</v>
+        <v>4.66393442622951</v>
       </c>
       <c r="AB3">
-        <v>0.104762684348714</v>
+        <v>0.08860047459545936</v>
       </c>
       <c r="AC3">
-        <v>1.23667854027244</v>
+        <v>4.57533395163405</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>0.096</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>0.096</v>
       </c>
       <c r="AG3">
-        <v>-39.6</v>
+        <v>-4.764</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.00966183574879227</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>0.02224281742354032</v>
       </c>
       <c r="AJ3">
-        <v>3.666666666666667</v>
+        <v>-0.938534278959811</v>
       </c>
       <c r="AK3">
-        <v>-0.5190039318479684</v>
+        <v>8.757352941176464</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -827,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>-0.0187866927592955</v>
       </c>
       <c r="AP3">
-        <v>-0.3995963673057518</v>
+        <v>0.9322896281800391</v>
       </c>
     </row>
     <row r="4">
@@ -841,7 +838,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Prime Islami Life Insurance Limited (DSE:PRIMELIFE)</t>
+          <t>Sandhani Life Insurance Company Limited (DSE:SANDHANINS)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -850,43 +847,43 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.101</v>
+        <v>-0.0533</v>
       </c>
       <c r="G4">
-        <v>0.1022</v>
+        <v>-0.06782006920415225</v>
       </c>
       <c r="H4">
-        <v>0.1022</v>
+        <v>-0.06782006920415225</v>
       </c>
       <c r="I4">
-        <v>-0.035</v>
+        <v>-0.0342560553633218</v>
       </c>
       <c r="J4">
-        <v>-0.035</v>
+        <v>-0.0342560553633218</v>
       </c>
       <c r="K4">
-        <v>-2.91</v>
+        <v>-3.38</v>
       </c>
       <c r="L4">
-        <v>-0.0582</v>
+        <v>-0.1169550173010381</v>
       </c>
       <c r="M4">
-        <v>1.38</v>
+        <v>1.66</v>
       </c>
       <c r="N4">
-        <v>0.07666666666666666</v>
+        <v>0.04676056338028169</v>
       </c>
       <c r="O4">
-        <v>-0.4742268041237113</v>
+        <v>-0.4911242603550296</v>
       </c>
       <c r="P4">
-        <v>1.38</v>
+        <v>1.66</v>
       </c>
       <c r="Q4">
-        <v>0.07666666666666666</v>
+        <v>0.04676056338028169</v>
       </c>
       <c r="R4">
-        <v>-0.4742268041237113</v>
+        <v>-0.4911242603550296</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -895,73 +892,61 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>17.5</v>
+        <v>38.6</v>
       </c>
       <c r="V4">
-        <v>0.9722222222222222</v>
+        <v>1.087323943661972</v>
       </c>
       <c r="W4">
-        <v>-0.7994505494505495</v>
+        <v>-0.02857142857142857</v>
       </c>
       <c r="X4">
-        <v>0.1143884863379444</v>
+        <v>0.08846408071440458</v>
       </c>
       <c r="Y4">
-        <v>-0.9138390357884939</v>
+        <v>-0.1170355092858331</v>
       </c>
       <c r="Z4">
-        <v>-2.556237218813906</v>
+        <v>0.366751269035533</v>
       </c>
       <c r="AA4">
-        <v>0.08946830265848671</v>
+        <v>-0.01256345177664975</v>
       </c>
       <c r="AB4">
-        <v>0.1057580772140267</v>
+        <v>0.08846408071440458</v>
       </c>
       <c r="AC4">
-        <v>-0.01628977455554002</v>
+        <v>-0.1010275324910543</v>
       </c>
       <c r="AD4">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>-14.8</v>
+        <v>-38.6</v>
       </c>
       <c r="AH4">
-        <v>0.1304347826086957</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.1849315068493151</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>-4.625000000000001</v>
+        <v>12.4516129032258</v>
       </c>
       <c r="AK4">
-        <v>5.103448275862069</v>
+        <v>-0.5065616797900263</v>
       </c>
       <c r="AL4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.01</v>
-      </c>
-      <c r="AN4">
-        <v>-1.741935483870968</v>
-      </c>
-      <c r="AO4">
-        <v>-175</v>
-      </c>
-      <c r="AP4">
-        <v>9.548387096774194</v>
-      </c>
-      <c r="AQ4">
-        <v>-175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -972,7 +957,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fareast Islami Life Insurance Company Limited (DSE:FAREASTLIF)</t>
+          <t>Pragati Life Insurance Limited (DSE:PRAGATILIF)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -981,46 +966,46 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.0412</v>
+        <v>0.08650000000000001</v>
       </c>
       <c r="E5">
-        <v>-0.481</v>
+        <v>-0.164</v>
       </c>
       <c r="G5">
-        <v>0.03464624361779723</v>
+        <v>0.07005208333333333</v>
       </c>
       <c r="H5">
-        <v>0.03464624361779723</v>
+        <v>0.07005208333333333</v>
       </c>
       <c r="I5">
-        <v>0.02778993435448578</v>
+        <v>0.0609375</v>
       </c>
       <c r="J5">
-        <v>0.01419630381482165</v>
+        <v>0.05163364955357143</v>
       </c>
       <c r="K5">
-        <v>2.08</v>
+        <v>1.9</v>
       </c>
       <c r="L5">
-        <v>0.01517140773158279</v>
+        <v>0.04947916666666666</v>
       </c>
       <c r="M5">
-        <v>2.31</v>
+        <v>0.215</v>
       </c>
       <c r="N5">
-        <v>0.0528604118993135</v>
+        <v>0.0134375</v>
       </c>
       <c r="O5">
-        <v>1.110576923076923</v>
+        <v>0.1131578947368421</v>
       </c>
       <c r="P5">
-        <v>2.31</v>
+        <v>0.215</v>
       </c>
       <c r="Q5">
-        <v>0.0528604118993135</v>
+        <v>0.0134375</v>
       </c>
       <c r="R5">
-        <v>1.110576923076923</v>
+        <v>0.1131578947368421</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1029,55 +1014,55 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>85.59999999999999</v>
+        <v>26.8</v>
       </c>
       <c r="V5">
-        <v>1.958810068649885</v>
+        <v>1.675</v>
       </c>
       <c r="W5">
-        <v>0.230343300110742</v>
+        <v>1.043956043956044</v>
       </c>
       <c r="X5">
-        <v>0.1345725669393129</v>
+        <v>0.08846408071440458</v>
       </c>
       <c r="Y5">
-        <v>0.09577073317142906</v>
+        <v>0.9554919632416392</v>
       </c>
       <c r="Z5">
-        <v>-0.833080148265176</v>
+        <v>-1.513002364066194</v>
       </c>
       <c r="AA5">
-        <v>-0.01182665888686911</v>
+        <v>-0.07812183383991894</v>
       </c>
       <c r="AB5">
-        <v>0.1057559079362895</v>
+        <v>0.08846408071440458</v>
       </c>
       <c r="AC5">
-        <v>-0.1175825668231586</v>
+        <v>-0.1665859145543235</v>
       </c>
       <c r="AD5">
-        <v>20.3</v>
+        <v>0</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>20.3</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>-65.3</v>
+        <v>-26.8</v>
       </c>
       <c r="AH5">
-        <v>0.3171875</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.684885290148448</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>3.023148148148149</v>
+        <v>2.481481481481481</v>
       </c>
       <c r="AK5">
-        <v>1.166904932094353</v>
+        <v>1.072428971588635</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1086,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>3.372093023255814</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>-10.84717607973422</v>
+        <v>-10.67729083665339</v>
       </c>
     </row>
     <row r="6">
@@ -1100,7 +1085,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pragati Life Insurance Limited (DSE:PRAGATILIF)</t>
+          <t>Meghna Life Insurance Company Limited (DSE:MEGHNALIFE)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1109,46 +1094,46 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.133</v>
+        <v>-0.0106</v>
       </c>
       <c r="E6">
-        <v>0.009769999999999999</v>
+        <v>0.0206</v>
       </c>
       <c r="G6">
-        <v>0.1196125907990315</v>
+        <v>0.2191103789126853</v>
       </c>
       <c r="H6">
-        <v>0.1196125907990315</v>
+        <v>0.2191103789126853</v>
       </c>
       <c r="I6">
-        <v>0.0983050847457627</v>
+        <v>0.200988467874794</v>
       </c>
       <c r="J6">
-        <v>0.0924659105390595</v>
+        <v>0.1859791677738215</v>
       </c>
       <c r="K6">
-        <v>3.76</v>
+        <v>11.5</v>
       </c>
       <c r="L6">
-        <v>0.0910411622276029</v>
+        <v>0.1894563426688632</v>
       </c>
       <c r="M6">
-        <v>0.387</v>
+        <v>0.741</v>
       </c>
       <c r="N6">
-        <v>0.01697368421052631</v>
+        <v>0.02975903614457831</v>
       </c>
       <c r="O6">
-        <v>0.1029255319148936</v>
+        <v>0.06443478260869565</v>
       </c>
       <c r="P6">
-        <v>0.387</v>
+        <v>0.741</v>
       </c>
       <c r="Q6">
-        <v>0.01697368421052631</v>
+        <v>0.02975903614457831</v>
       </c>
       <c r="R6">
-        <v>0.1029255319148936</v>
+        <v>0.06443478260869565</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1157,31 +1142,31 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>27.2</v>
+        <v>97.8</v>
       </c>
       <c r="V6">
-        <v>1.192982456140351</v>
+        <v>3.927710843373494</v>
       </c>
       <c r="W6">
-        <v>2.364779874213836</v>
+        <v>2.896725440806045</v>
       </c>
       <c r="X6">
-        <v>0.104762684348714</v>
+        <v>0.08846408071440458</v>
       </c>
       <c r="Y6">
-        <v>2.260017189865122</v>
+        <v>2.80826136009164</v>
       </c>
       <c r="Z6">
-        <v>-1.581769436997319</v>
+        <v>-0.7014908124349937</v>
       </c>
       <c r="AA6">
-        <v>-0.1462597512548126</v>
+        <v>-0.130462677497642</v>
       </c>
       <c r="AB6">
-        <v>0.104762684348714</v>
+        <v>0.08846408071440458</v>
       </c>
       <c r="AC6">
-        <v>-0.2510224356035267</v>
+        <v>-0.2189267582120466</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -1193,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>-27.2</v>
+        <v>-97.8</v>
       </c>
       <c r="AH6">
         <v>0</v>
@@ -1202,10 +1187,10 @@
         <v>0</v>
       </c>
       <c r="AJ6">
-        <v>6.181818181818183</v>
+        <v>1.34156378600823</v>
       </c>
       <c r="AK6">
-        <v>1.071710007880221</v>
+        <v>1.042088438998402</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -1217,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>-6.325581395348837</v>
+        <v>-7.761904761904762</v>
       </c>
     </row>
     <row r="7">
@@ -1228,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Delta Life Insurance Company Limited (DSE:DELTALIFE)</t>
+          <t>National Life Insurance Company Limited (DSE:NATLIFEINS)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1236,47 +1221,41 @@
           <t>Insurance (Life)</t>
         </is>
       </c>
-      <c r="D7">
-        <v>0.0457</v>
-      </c>
-      <c r="E7">
-        <v>-0.0244</v>
-      </c>
       <c r="G7">
-        <v>0.2001668056713928</v>
+        <v>0.2385697538100821</v>
       </c>
       <c r="H7">
-        <v>0.2001668056713928</v>
+        <v>0.2385697538100821</v>
       </c>
       <c r="I7">
-        <v>0.1968306922435363</v>
+        <v>0.2620164126611958</v>
       </c>
       <c r="J7">
-        <v>0.1733132588845683</v>
+        <v>0.2347355275900644</v>
       </c>
       <c r="K7">
-        <v>20.3</v>
+        <v>39.1</v>
       </c>
       <c r="L7">
-        <v>0.1693077564637198</v>
+        <v>0.2291910902696366</v>
       </c>
       <c r="M7">
-        <v>5.47</v>
+        <v>5.03</v>
       </c>
       <c r="N7">
-        <v>0.04781468531468531</v>
+        <v>0.01542944785276074</v>
       </c>
       <c r="O7">
-        <v>0.2694581280788177</v>
+        <v>0.1286445012787724</v>
       </c>
       <c r="P7">
-        <v>5.47</v>
+        <v>5.03</v>
       </c>
       <c r="Q7">
-        <v>0.04781468531468531</v>
+        <v>0.01542944785276074</v>
       </c>
       <c r="R7">
-        <v>0.2694581280788177</v>
+        <v>0.1286445012787724</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1285,31 +1264,31 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>137.5</v>
+        <v>210.3</v>
       </c>
       <c r="V7">
-        <v>1.201923076923077</v>
+        <v>0.6450920245398774</v>
       </c>
       <c r="W7">
-        <v>1.26875</v>
+        <v>2.538961038961039</v>
       </c>
       <c r="X7">
-        <v>0.104762684348714</v>
+        <v>0.08846408071440458</v>
       </c>
       <c r="Y7">
-        <v>1.163987315651286</v>
+        <v>2.450496958246634</v>
       </c>
       <c r="Z7">
-        <v>-1.074372759856631</v>
+        <v>-0.8848547717842324</v>
       </c>
       <c r="AA7">
-        <v>-0.1862030442675604</v>
+        <v>-0.2077068516953579</v>
       </c>
       <c r="AB7">
-        <v>0.104762684348714</v>
+        <v>0.08846408071440458</v>
       </c>
       <c r="AC7">
-        <v>-0.2909657286162745</v>
+        <v>-0.2961709324097624</v>
       </c>
       <c r="AD7">
         <v>0</v>
@@ -1321,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="AG7">
-        <v>-137.5</v>
+        <v>-210.3</v>
       </c>
       <c r="AH7">
         <v>0</v>
@@ -1330,266 +1309,28 @@
         <v>0</v>
       </c>
       <c r="AJ7">
-        <v>5.952380952380953</v>
+        <v>-1.817631806395852</v>
       </c>
       <c r="AK7">
-        <v>1.124284546197874</v>
+        <v>1.082346886258363</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <v>0.047</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <v>0.047</v>
       </c>
       <c r="AN7">
         <v>0</v>
       </c>
+      <c r="AO7">
+        <v>951.0638297872341</v>
+      </c>
       <c r="AP7">
-        <v>-5.612244897959184</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Bangladesh</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>National Life Insurance Company Limited (DSE:NATLIFEINS)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Insurance (Life)</t>
-        </is>
-      </c>
-      <c r="G8">
-        <v>0.1996268656716418</v>
-      </c>
-      <c r="H8">
-        <v>0.1996268656716418</v>
-      </c>
-      <c r="I8">
-        <v>0.3407960199004975</v>
-      </c>
-      <c r="J8">
-        <v>0.3164985258890731</v>
-      </c>
-      <c r="K8">
-        <v>50.1</v>
-      </c>
-      <c r="L8">
-        <v>0.3115671641791045</v>
-      </c>
-      <c r="M8">
-        <v>2.67</v>
-      </c>
-      <c r="N8">
-        <v>0.007478991596638655</v>
-      </c>
-      <c r="O8">
-        <v>0.05329341317365269</v>
-      </c>
-      <c r="P8">
-        <v>2.67</v>
-      </c>
-      <c r="Q8">
-        <v>0.007478991596638655</v>
-      </c>
-      <c r="R8">
-        <v>0.05329341317365269</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>208.2</v>
-      </c>
-      <c r="V8">
-        <v>0.5831932773109243</v>
-      </c>
-      <c r="W8">
-        <v>3.253246753246753</v>
-      </c>
-      <c r="X8">
-        <v>0.104762684348714</v>
-      </c>
-      <c r="Y8">
-        <v>3.148484068898039</v>
-      </c>
-      <c r="Z8">
-        <v>-0.8893805309734515</v>
-      </c>
-      <c r="AA8">
-        <v>-0.2814876270075385</v>
-      </c>
-      <c r="AB8">
-        <v>0.104762684348714</v>
-      </c>
-      <c r="AC8">
-        <v>-0.3862503113562526</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <v>-208.2</v>
-      </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
-      <c r="AI8">
-        <v>0</v>
-      </c>
-      <c r="AJ8">
-        <v>-1.399193548387097</v>
-      </c>
-      <c r="AK8">
-        <v>1.080996884735203</v>
-      </c>
-      <c r="AL8">
-        <v>0</v>
-      </c>
-      <c r="AM8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Bangladesh</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Meghna Life Insurance Company Limited (DSE:MEGHNALIFE)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Insurance (Life)</t>
-        </is>
-      </c>
-      <c r="D9">
-        <v>-0.00479</v>
-      </c>
-      <c r="E9">
-        <v>0.0704</v>
-      </c>
-      <c r="G9">
-        <v>3.273752012882448</v>
-      </c>
-      <c r="H9">
-        <v>3.273752012882448</v>
-      </c>
-      <c r="I9">
-        <v>3.214170692431562</v>
-      </c>
-      <c r="J9">
-        <v>3.202431561996779</v>
-      </c>
-      <c r="K9">
-        <v>198.9</v>
-      </c>
-      <c r="L9">
-        <v>3.202898550724638</v>
-      </c>
-      <c r="M9">
-        <v>0.007</v>
-      </c>
-      <c r="N9">
-        <v>0.0003431372549019608</v>
-      </c>
-      <c r="O9">
-        <v>3.519356460532931e-05</v>
-      </c>
-      <c r="P9">
-        <v>0.007</v>
-      </c>
-      <c r="Q9">
-        <v>0.0003431372549019608</v>
-      </c>
-      <c r="R9">
-        <v>3.519356460532931e-05</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>95.3</v>
-      </c>
-      <c r="V9">
-        <v>4.671568627450981</v>
-      </c>
-      <c r="W9">
-        <v>49.725</v>
-      </c>
-      <c r="X9">
-        <v>0.104762684348714</v>
-      </c>
-      <c r="Y9">
-        <v>49.62023731565129</v>
-      </c>
-      <c r="Z9">
-        <v>-0.6816684961580681</v>
-      </c>
-      <c r="AA9">
-        <v>-2.182996706915478</v>
-      </c>
-      <c r="AB9">
-        <v>0.104762684348714</v>
-      </c>
-      <c r="AC9">
-        <v>-2.287759391264192</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
-      <c r="AG9">
-        <v>-95.3</v>
-      </c>
-      <c r="AH9">
-        <v>0</v>
-      </c>
-      <c r="AI9">
-        <v>0</v>
-      </c>
-      <c r="AJ9">
-        <v>1.272363150867824</v>
-      </c>
-      <c r="AK9">
-        <v>1.043925950268376</v>
-      </c>
-      <c r="AL9">
-        <v>0</v>
-      </c>
-      <c r="AM9">
-        <v>0</v>
-      </c>
-      <c r="AN9">
-        <v>0</v>
-      </c>
-      <c r="AP9">
-        <v>-0.4767383691845923</v>
+        <v>-4.561822125813449</v>
+      </c>
+      <c r="AQ7">
+        <v>951.0638297872341</v>
       </c>
     </row>
   </sheetData>
